--- a/Team-Data/2008-09/3-11-2008-09.xlsx
+++ b/Team-Data/2008-09/3-11-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
         <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.569</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,28 +751,28 @@
         <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K2" t="n">
         <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M2" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N2" t="n">
         <v>0.363</v>
       </c>
       <c r="O2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P2" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.733</v>
+        <v>0.735</v>
       </c>
       <c r="R2" t="n">
         <v>10.6</v>
@@ -723,7 +790,7 @@
         <v>12.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
@@ -732,16 +799,16 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
         <v>20.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD2" t="n">
         <v>5</v>
@@ -759,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -786,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -795,16 +862,16 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>9</v>
@@ -816,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -851,13 +918,13 @@
         <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.766</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -872,13 +939,13 @@
         <v>0.487</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
@@ -887,16 +954,16 @@
         <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
         <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
         <v>22.7</v>
@@ -905,28 +972,28 @@
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,19 +1023,19 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -998,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>3</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1150,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1177,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -1215,55 +1282,55 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.438</v>
+        <v>0.453</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
         <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U5" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>15</v>
@@ -1275,22 +1342,22 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
         <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>101.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.8</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1299,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
@@ -1308,10 +1375,10 @@
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1320,10 +1387,10 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1353,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.806</v>
+        <v>0.794</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
@@ -1496,13 +1563,13 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1526,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1535,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.615</v>
+        <v>0.609</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,7 +1661,7 @@
         <v>38.2</v>
       </c>
       <c r="J7" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K7" t="n">
         <v>0.461</v>
@@ -1603,16 +1670,16 @@
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P7" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.821</v>
@@ -1621,7 +1688,7 @@
         <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
         <v>42.8</v>
@@ -1630,7 +1697,7 @@
         <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1639,7 +1706,7 @@
         <v>5.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
         <v>19.3</v>
@@ -1648,16 +1715,16 @@
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD7" t="n">
         <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1678,13 +1745,13 @@
         <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1696,19 +1763,19 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>6</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -1758,34 +1825,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.621</v>
+        <v>0.615</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J8" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N8" t="n">
         <v>0.362</v>
@@ -1809,7 +1876,7 @@
         <v>41.3</v>
       </c>
       <c r="U8" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
@@ -1818,7 +1885,7 @@
         <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y8" t="n">
         <v>5.4</v>
@@ -1827,19 +1894,19 @@
         <v>22.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1857,19 +1924,19 @@
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1887,7 +1954,7 @@
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1899,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>79.5</v>
+        <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
         <v>17.1</v>
@@ -1979,28 +2046,28 @@
         <v>22.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R9" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S9" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>40.7</v>
       </c>
       <c r="U9" t="n">
         <v>20.4</v>
       </c>
       <c r="V9" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y9" t="n">
         <v>4</v>
@@ -2012,34 +2079,34 @@
         <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>22</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2048,7 +2115,7 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
@@ -2060,16 +2127,16 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2090,10 +2157,10 @@
         <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
         <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>0.344</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J10" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M10" t="n">
         <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="P10" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R10" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U10" t="n">
         <v>20.7</v>
@@ -2191,28 +2258,28 @@
         <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>108</v>
+        <v>107.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2221,10 +2288,10 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
@@ -2233,13 +2300,13 @@
         <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2254,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
         <v>42</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.636</v>
+        <v>0.646</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,25 +2389,25 @@
         <v>35.8</v>
       </c>
       <c r="J11" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="O11" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P11" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q11" t="n">
         <v>0.805</v>
@@ -2349,25 +2416,25 @@
         <v>10.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U11" t="n">
         <v>20.5</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z11" t="n">
         <v>19</v>
@@ -2379,16 +2446,16 @@
         <v>98.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
@@ -2403,7 +2470,7 @@
         <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,7 +2479,7 @@
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
@@ -2424,19 +2491,19 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-1.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2585,16 +2652,16 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2621,7 +2688,7 @@
         <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
@@ -2770,28 +2837,28 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
         <v>27</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -2865,22 +2932,22 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.36</v>
+        <v>0.365</v>
       </c>
       <c r="O14" t="n">
         <v>20.3</v>
@@ -2889,16 +2956,16 @@
         <v>26.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
         <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
         <v>23.6</v>
@@ -2907,7 +2974,7 @@
         <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>5.3</v>
@@ -2922,22 +2989,22 @@
         <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>16</v>
@@ -2958,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,16 +3055,16 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.254</v>
+        <v>0.258</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
         <v>77.59999999999999</v>
@@ -3062,31 +3129,31 @@
         <v>13.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S15" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T15" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U15" t="n">
         <v>17.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.5</v>
@@ -3098,19 +3165,19 @@
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3143,7 +3210,7 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3152,28 +3219,28 @@
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
       </c>
       <c r="AT15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3182,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="n">
         <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>0.547</v>
+        <v>0.54</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3235,7 +3302,7 @@
         <v>81.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
@@ -3244,10 +3311,10 @@
         <v>19.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P16" t="n">
         <v>22.5</v>
@@ -3262,19 +3329,19 @@
         <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="U16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V16" t="n">
         <v>12.7</v>
       </c>
       <c r="W16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
         <v>4</v>
@@ -3283,16 +3350,16 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3304,7 +3371,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3313,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -3337,13 +3404,13 @@
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3358,13 +3425,13 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="n">
-        <v>0.455</v>
+        <v>0.448</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,40 +3484,40 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3462,40 +3529,40 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,37 +3574,37 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
       </c>
       <c r="AV17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW17" t="n">
         <v>13</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3549,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>0.297</v>
+        <v>0.286</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,19 +3663,19 @@
         <v>36.8</v>
       </c>
       <c r="J18" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M18" t="n">
         <v>18.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O18" t="n">
         <v>19</v>
@@ -3617,16 +3684,16 @@
         <v>24.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
         <v>20.5</v>
@@ -3635,13 +3702,13 @@
         <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z18" t="n">
         <v>22.1</v>
@@ -3650,13 +3717,13 @@
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,13 +3735,13 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3686,16 +3753,16 @@
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3707,7 +3774,7 @@
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>16</v>
@@ -3716,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.438</v>
+        <v>0.444</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J19" t="n">
         <v>80.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
@@ -3796,10 +3863,10 @@
         <v>19.3</v>
       </c>
       <c r="P19" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.782</v>
+        <v>0.785</v>
       </c>
       <c r="R19" t="n">
         <v>10.7</v>
@@ -3814,49 +3881,49 @@
         <v>19.8</v>
       </c>
       <c r="V19" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W19" t="n">
         <v>7.1</v>
       </c>
       <c r="X19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y19" t="n">
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AA19" t="n">
         <v>20.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,19 +3935,19 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS19" t="n">
         <v>21</v>
@@ -3892,13 +3959,13 @@
         <v>28</v>
       </c>
       <c r="AV19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
         <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
         <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.635</v>
+        <v>0.629</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J20" t="n">
         <v>77</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
         <v>7.4</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O20" t="n">
         <v>18.5</v>
@@ -3981,16 +4048,16 @@
         <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U20" t="n">
         <v>20</v>
@@ -4002,7 +4069,7 @@
         <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y20" t="n">
         <v>3.6</v>
@@ -4014,25 +4081,25 @@
         <v>20.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
@@ -4050,13 +4117,13 @@
         <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>4</v>
@@ -4068,7 +4135,7 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU20" t="n">
         <v>25</v>
@@ -4089,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
         <v>37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.422</v>
+        <v>0.413</v>
       </c>
       <c r="H21" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.446</v>
@@ -4151,25 +4218,25 @@
         <v>10.5</v>
       </c>
       <c r="M21" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P21" t="n">
         <v>23.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.794</v>
+        <v>0.795</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T21" t="n">
         <v>42.3</v>
@@ -4178,7 +4245,7 @@
         <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W21" t="n">
         <v>7.2</v>
@@ -4196,25 +4263,25 @@
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4253,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="n">
         <v>18</v>
       </c>
       <c r="F22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" t="n">
-        <v>0.277</v>
+        <v>0.281</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J22" t="n">
         <v>81.8</v>
@@ -4336,31 +4403,31 @@
         <v>11.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P22" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.786</v>
+        <v>0.783</v>
       </c>
       <c r="R22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S22" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T22" t="n">
         <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V22" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
@@ -4369,7 +4436,7 @@
         <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
         <v>20.6</v>
@@ -4381,13 +4448,13 @@
         <v>97.90000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="AD22" t="n">
         <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF22" t="n">
         <v>26</v>
@@ -4396,16 +4463,16 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4423,7 +4490,7 @@
         <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
@@ -4435,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="n">
         <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J23" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K23" t="n">
         <v>0.46</v>
       </c>
       <c r="L23" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M23" t="n">
         <v>26.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="O23" t="n">
         <v>20</v>
@@ -4527,16 +4594,16 @@
         <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
         <v>19.2</v>
@@ -4545,7 +4612,7 @@
         <v>14.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
         <v>5.3</v>
@@ -4557,16 +4624,16 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB23" t="n">
         <v>102</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4614,19 +4681,19 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
         <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.492</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J24" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M24" t="n">
         <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="O24" t="n">
         <v>19.4</v>
@@ -4715,10 +4782,10 @@
         <v>12.8</v>
       </c>
       <c r="S24" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U24" t="n">
         <v>20.2</v>
@@ -4733,28 +4800,28 @@
         <v>5.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
         <v>21.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
         <v>16</v>
@@ -4766,10 +4833,10 @@
         <v>19</v>
       </c>
       <c r="AJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK24" t="n">
         <v>16</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>14</v>
@@ -4942,7 +5009,7 @@
         <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
@@ -4978,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -4999,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -5052,43 +5119,43 @@
         <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
         <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
         <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.8</v>
@@ -5097,7 +5164,7 @@
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.6</v>
@@ -5106,31 +5173,31 @@
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5142,10 +5209,10 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5160,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>20</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
@@ -5187,7 +5254,7 @@
         <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5315,19 +5382,19 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM27" t="n">
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5351,13 +5418,13 @@
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5497,10 +5564,10 @@
         <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,10 +5591,10 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5539,7 +5606,7 @@
         <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -5580,55 +5647,55 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J29" t="n">
         <v>79.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
         <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O29" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.828</v>
+        <v>0.83</v>
       </c>
       <c r="R29" t="n">
         <v>9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T29" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="U29" t="n">
         <v>21.8</v>
@@ -5637,7 +5704,7 @@
         <v>13.2</v>
       </c>
       <c r="W29" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X29" t="n">
         <v>4.8</v>
@@ -5649,13 +5716,13 @@
         <v>19.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD29" t="n">
         <v>5</v>
@@ -5673,13 +5740,13 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5688,10 +5755,10 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
         <v>28</v>
@@ -5709,28 +5776,28 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB29" t="n">
         <v>23</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>22</v>
       </c>
       <c r="BC29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" t="n">
         <v>41</v>
       </c>
       <c r="F30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.631</v>
+        <v>0.641</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
@@ -5780,10 +5847,10 @@
         <v>38.3</v>
       </c>
       <c r="J30" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5792,13 +5859,13 @@
         <v>13.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="Q30" t="n">
         <v>0.774</v>
@@ -5810,19 +5877,19 @@
         <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
@@ -5831,13 +5898,13 @@
         <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AD30" t="n">
         <v>5</v>
@@ -5846,13 +5913,13 @@
         <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5882,25 +5949,25 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,31 +6029,31 @@
         <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O31" t="n">
         <v>17.5</v>
       </c>
       <c r="P31" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R31" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
         <v>28</v>
@@ -5995,10 +6062,10 @@
         <v>39.7</v>
       </c>
       <c r="U31" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
@@ -6007,7 +6074,7 @@
         <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
         <v>20.5</v>
@@ -6019,7 +6086,7 @@
         <v>94.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
         <v>5</v>
@@ -6028,10 +6095,10 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6058,28 +6125,28 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6091,7 +6158,7 @@
         <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-11-2008-09</t>
+          <t>2009-03-11</t>
         </is>
       </c>
     </row>
